--- a/Diamond_2003SARS/Diamond_Princess_data.xlsx
+++ b/Diamond_2003SARS/Diamond_Princess_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SCUMATH_Project\Project_ver2\Diamond_2003SARS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B442EDC-5494-4542-BAE8-A66CCCC7A209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08EEFC4-3686-4D8E-8795-CD229D8575F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,16 +115,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -451,7 +454,7 @@
   <dimension ref="A1:H998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
